--- a/Greedy.xlsx
+++ b/Greedy.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psfue\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView windowHeight="9192" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -106,6 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,61 +279,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,10 +350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -387,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +511,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -519,13 +520,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -535,7 +536,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -544,7 +545,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,7 +554,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,12 +564,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -599,7 +600,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -618,7 +619,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -630,8 +631,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P14" sqref="P14:Q14"/>
@@ -639,10 +640,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="16.5" r="1" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="11" t="s">
         <v>17</v>
@@ -685,7 +686,7 @@
       </c>
       <c r="U1" s="12"/>
     </row>
-    <row r="2" spans="1:21" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.8" r="2" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -748,332 +749,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="3" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>100</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100</v>
-      </c>
-      <c r="D3" s="8">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8">
-        <v>100</v>
-      </c>
-      <c r="G3" s="9">
-        <v>100</v>
-      </c>
-      <c r="H3" s="8">
-        <v>100</v>
-      </c>
-      <c r="I3" s="9">
-        <v>100</v>
-      </c>
-      <c r="J3" s="8">
-        <v>100</v>
-      </c>
-      <c r="K3" s="9">
-        <v>100</v>
-      </c>
-      <c r="L3" s="8">
-        <v>100</v>
-      </c>
-      <c r="M3" s="9">
-        <v>100</v>
-      </c>
-      <c r="N3" s="8">
-        <v>100</v>
-      </c>
-      <c r="O3" s="9">
-        <v>100</v>
-      </c>
-      <c r="P3" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>100</v>
-      </c>
-      <c r="R3" s="8">
-        <v>100</v>
-      </c>
-      <c r="S3" s="9">
-        <v>100</v>
-      </c>
-      <c r="T3" s="8">
-        <v>100</v>
-      </c>
-      <c r="U3" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="n">
+        <v>820.0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>1601.0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>3428.0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0.40265318751335144</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>2472.0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>2472.0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>1556.0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>3064.0</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>0.46976205706596375</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>2963.0</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>5370.0</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>2.01326584815979</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>5506.0</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>2.5501368045806885</v>
+      </c>
+    </row>
+    <row ht="16.2" r="4" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>200</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100</v>
-      </c>
-      <c r="D4" s="8">
-        <v>200</v>
-      </c>
-      <c r="E4" s="9">
-        <v>120</v>
-      </c>
-      <c r="F4" s="8">
-        <v>200</v>
-      </c>
-      <c r="G4" s="9">
-        <v>100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>200</v>
-      </c>
-      <c r="I4" s="9">
-        <v>120</v>
-      </c>
-      <c r="J4" s="8">
-        <v>27</v>
-      </c>
-      <c r="K4" s="9">
-        <v>120</v>
-      </c>
-      <c r="L4" s="8">
-        <v>200</v>
-      </c>
-      <c r="M4" s="9">
-        <v>100</v>
-      </c>
-      <c r="N4" s="8">
-        <v>200</v>
-      </c>
-      <c r="O4" s="9">
-        <v>120</v>
-      </c>
-      <c r="P4" s="8">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>100</v>
-      </c>
-      <c r="R4" s="8">
-        <v>200</v>
-      </c>
-      <c r="S4" s="9">
-        <v>120</v>
-      </c>
-      <c r="T4" s="8">
-        <v>27</v>
-      </c>
-      <c r="U4" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1630.0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.13421772420406342</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>3408.0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.40265318751335144</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>2535.0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>2535.0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>1482.0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>3004.0</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0.46976205706596375</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>3025.0</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0.33554431796073914</v>
+      </c>
+      <c r="R4" s="8" t="n">
+        <v>5307.0</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>2.0803747177124023</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>5438.0</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>2.5501368045806885</v>
+      </c>
+    </row>
+    <row ht="16.2" r="5" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>320</v>
-      </c>
-      <c r="C5" s="9">
-        <v>100</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="9">
-        <v>130</v>
-      </c>
-      <c r="F5" s="8">
-        <v>320</v>
-      </c>
-      <c r="G5" s="9">
-        <v>100</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="9">
-        <v>130</v>
-      </c>
-      <c r="J5" s="8">
-        <v>320</v>
-      </c>
-      <c r="K5" s="9">
-        <v>144</v>
-      </c>
-      <c r="L5" s="8">
-        <v>320</v>
-      </c>
-      <c r="M5" s="9">
-        <v>100</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="9">
-        <v>130</v>
-      </c>
-      <c r="P5" s="8">
-        <v>320</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>100</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="9">
-        <v>130</v>
-      </c>
-      <c r="T5" s="8">
-        <v>320</v>
-      </c>
-      <c r="U5" s="9">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1601.0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.13421772420406342</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>3385.0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0.40265318751335144</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>2478.0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>2478.0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.33554431796073914</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>1570.0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>2930.0</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0.46976205706596375</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>3053.0</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0.33554431796073914</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>5319.0</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>2.01326584815979</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>5444.0</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>2.617245674133301</v>
+      </c>
+    </row>
+    <row ht="16.2" r="6" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>100</v>
-      </c>
-      <c r="D6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>13.21</v>
-      </c>
-      <c r="F6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>100</v>
-      </c>
-      <c r="H6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>13.21</v>
-      </c>
-      <c r="J6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="K6" s="9">
-        <v>140</v>
-      </c>
-      <c r="L6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="M6" s="9">
-        <v>100</v>
-      </c>
-      <c r="N6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="O6" s="9">
-        <v>13.21</v>
-      </c>
-      <c r="P6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>100</v>
-      </c>
-      <c r="R6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>13.21</v>
-      </c>
-      <c r="T6" s="8">
-        <v>421.5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>1639.0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.13421772420406342</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>3337.0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.40265318751335144</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>2512.0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>2512.0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>1533.0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.13421772420406342</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>3064.0</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.46976205706596375</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>3048.0</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.33554431796073914</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v>5278.0</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>2.0803747177124023</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>5515.0</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>2.617245674133301</v>
+      </c>
+    </row>
+    <row ht="16.2" r="7" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="C7" s="9">
-        <v>100</v>
-      </c>
-      <c r="D7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>150</v>
-      </c>
-      <c r="F7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="G7" s="9">
-        <v>100</v>
-      </c>
-      <c r="H7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="I7" s="9">
-        <v>150</v>
-      </c>
-      <c r="J7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="K7" s="9">
-        <v>150</v>
-      </c>
-      <c r="L7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="M7" s="9">
-        <v>100</v>
-      </c>
-      <c r="N7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="O7" s="9">
-        <v>150</v>
-      </c>
-      <c r="P7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>100</v>
-      </c>
-      <c r="R7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="S7" s="9">
-        <v>150</v>
-      </c>
-      <c r="T7" s="10">
-        <v>502.22</v>
-      </c>
-      <c r="U7" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>1632.0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>3373.0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0.40265318751335144</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>2522.0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>2522.0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>1463.0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.06710886210203171</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>2998.0</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.46976205706596375</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>2943.0</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0.26843544840812683</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>5224.0</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>2.01326584815979</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>5513.0</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>2.5501368045806885</v>
+      </c>
+    </row>
+    <row ht="16.8" r="8" spans="1:21" thickBot="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="9" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1223,16 +1224,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="10" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:K10" si="0">AVERAGE(B3:B7)</f>
+        <f ref="B10:K10" si="0" t="shared">AVERAGE(B3:B7)</f>
         <v>308.74400000000003</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>100</v>
       </c>
       <c r="D10" s="6">
@@ -1244,11 +1245,11 @@
         <v>102.64200000000001</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:G10" si="1">AVERAGE(F3:F7)</f>
+        <f ref="F10:G10" si="1" t="shared">AVERAGE(F3:F7)</f>
         <v>308.74400000000003</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>100</v>
       </c>
       <c r="H10" s="6">
@@ -1260,19 +1261,19 @@
         <v>102.64200000000001</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>274.14400000000001</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>130.80000000000001</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" ref="L10:M10" si="2">AVERAGE(L3:L7)</f>
+        <f ref="L10:M10" si="2" t="shared">AVERAGE(L3:L7)</f>
         <v>308.74400000000003</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>100</v>
       </c>
       <c r="N10" s="6">
@@ -1284,11 +1285,11 @@
         <v>102.64200000000001</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" ref="P10:Q10" si="3">AVERAGE(P3:P7)</f>
+        <f ref="P10:Q10" si="3" t="shared">AVERAGE(P3:P7)</f>
         <v>308.74400000000003</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>100</v>
       </c>
       <c r="R10" s="6">
@@ -1300,24 +1301,24 @@
         <v>102.64200000000001</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" ref="T10:U10" si="4">AVERAGE(T3:T7)</f>
+        <f ref="T10:U10" si="4" t="shared">AVERAGE(T3:T7)</f>
         <v>274.14400000000001</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="11" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" ref="B11:K11" si="5">STDEV(B3:B7)</f>
+        <f ref="B11:K11" si="5" t="shared">STDEV(B3:B7)</f>
         <v>162.53683484059863</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="D11" s="6">
@@ -1329,11 +1330,11 @@
         <v>53.145092153462286</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11:G11" si="6">STDEV(F3:F7)</f>
+        <f ref="F11:G11" si="6" t="shared">STDEV(F3:F7)</f>
         <v>162.53683484059863</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="6"/>
+        <f si="6" t="shared"/>
         <v>0</v>
       </c>
       <c r="H11" s="6">
@@ -1345,19 +1346,19 @@
         <v>53.145092153462286</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>204.47586331887689</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>20.571825392998083</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:M11" si="7">STDEV(L3:L7)</f>
+        <f ref="L11:M11" si="7" t="shared">STDEV(L3:L7)</f>
         <v>162.53683484059863</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>0</v>
       </c>
       <c r="N11" s="6">
@@ -1369,11 +1370,11 @@
         <v>53.145092153462286</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" ref="P11:Q11" si="8">STDEV(P3:P7)</f>
+        <f ref="P11:Q11" si="8" t="shared">STDEV(P3:P7)</f>
         <v>162.53683484059863</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
@@ -1385,16 +1386,16 @@
         <v>53.145092153462286</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" ref="T11:U11" si="9">STDEV(T3:T7)</f>
+        <f ref="T11:U11" si="9" t="shared">STDEV(T3:T7)</f>
         <v>204.47586331887689</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>20.571825392998083</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="13" spans="1:21" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row customHeight="1" ht="16.5" r="14" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="11" t="s">
         <v>17</v>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.8" r="15" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1500,16 +1501,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="16" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" ref="B16:K17" si="10">B10</f>
+        <f ref="B16:K17" si="10" t="shared">B10</f>
         <v>308.74400000000003</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>100</v>
       </c>
       <c r="D16" s="6">
@@ -1521,11 +1522,11 @@
         <v>102.64200000000001</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:G16" si="11">F10</f>
+        <f ref="F16:G16" si="11" t="shared">F10</f>
         <v>308.74400000000003</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>100</v>
       </c>
       <c r="H16" s="6">
@@ -1537,19 +1538,19 @@
         <v>102.64200000000001</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>274.14400000000001</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>130.80000000000001</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16:M16" si="12">L10</f>
+        <f ref="L16:M16" si="12" t="shared">L10</f>
         <v>308.74400000000003</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="12"/>
+        <f si="12" t="shared"/>
         <v>100</v>
       </c>
       <c r="N16" s="6">
@@ -1561,11 +1562,11 @@
         <v>102.64200000000001</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" ref="P16:Q16" si="13">P10</f>
+        <f ref="P16:Q16" si="13" t="shared">P10</f>
         <v>308.74400000000003</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="13"/>
+        <f si="13" t="shared"/>
         <v>100</v>
       </c>
       <c r="R16" s="6">
@@ -1577,24 +1578,24 @@
         <v>102.64200000000001</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" ref="T16:U16" si="14">T10</f>
+        <f ref="T16:U16" si="14" t="shared">T10</f>
         <v>274.14400000000001</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="14"/>
+        <f si="14" t="shared"/>
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="17" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>162.53683484059863</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>0</v>
       </c>
       <c r="D17" s="6">
@@ -1606,11 +1607,11 @@
         <v>53.145092153462286</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" ref="F17:G17" si="15">F11</f>
+        <f ref="F17:G17" si="15" t="shared">F11</f>
         <v>162.53683484059863</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="15"/>
+        <f si="15" t="shared"/>
         <v>0</v>
       </c>
       <c r="H17" s="6">
@@ -1622,19 +1623,19 @@
         <v>53.145092153462286</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>204.47586331887689</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="10"/>
+        <f si="10" t="shared"/>
         <v>20.571825392998083</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L17:M17" si="16">L11</f>
+        <f ref="L17:M17" si="16" t="shared">L11</f>
         <v>162.53683484059863</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="16"/>
+        <f si="16" t="shared"/>
         <v>0</v>
       </c>
       <c r="N17" s="6">
@@ -1646,11 +1647,11 @@
         <v>53.145092153462286</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ref="P17:Q17" si="17">P11</f>
+        <f ref="P17:Q17" si="17" t="shared">P11</f>
         <v>162.53683484059863</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="17"/>
+        <f si="17" t="shared"/>
         <v>0</v>
       </c>
       <c r="R17" s="6">
@@ -1662,15 +1663,15 @@
         <v>53.145092153462286</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" ref="T17:U17" si="18">T11</f>
+        <f ref="T17:U17" si="18" t="shared">T11</f>
         <v>204.47586331887689</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="18"/>
+        <f si="18" t="shared"/>
         <v>20.571825392998083</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="18" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1695,7 +1696,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="19" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1718,7 +1719,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="20" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1744,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="21" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1766,7 +1767,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="22" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1791,7 +1792,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="16.2" r="23" spans="1:21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1839,7 +1840,7 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>